--- a/data/trans_dic/P70A04_2007-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70A04_2007-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,59%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,62%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>27,7; 45,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>11,47; 28,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>22,15; 35,27</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,39%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>54,87; 68,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,5</t>
+          <t>48,59; 65,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>55,45; 65,42</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,72%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,46%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,37%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>47,01; 65,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>50,97; 76,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>51,58; 66,14</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,12%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>34,61; 50,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>25,4; 44,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>32,87; 44,87</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,78%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,64%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,42%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>72,05; 87,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>46,13; 78,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>67,02; 82,17</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,8%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,46%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>40,73; 60,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>41,97; 67,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,17</t>
+          <t>44,85; 60,44</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,01%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,23%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,01%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>61,82; 73,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,46</t>
+          <t>53,5; 70,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>61,0; 70,8</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,51%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,26%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,2%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>67,86; 76,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>49,63; 62,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>63,28; 70,93</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,78%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,59%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,24%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>59,34; 64,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>48,09; 55,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>56,3; 60,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70A04_2007-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70A04_2007-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,7; 45,27</t>
+          <t>27,7; 44,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,47; 28,93</t>
+          <t>11,41; 27,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,15; 35,27</t>
+          <t>22,59; 35,24</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>54,87; 68,01</t>
+          <t>55,35; 67,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,59; 65,89</t>
+          <t>48,8; 65,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>55,45; 65,42</t>
+          <t>55,32; 65,15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>47,01; 65,9</t>
+          <t>47,37; 66,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,97; 76,04</t>
+          <t>51,73; 76,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,58; 66,14</t>
+          <t>52,31; 66,62</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,61; 50,52</t>
+          <t>34,58; 50,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,4; 44,62</t>
+          <t>26,68; 45,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,87; 44,87</t>
+          <t>33,26; 45,4</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>72,05; 87,67</t>
+          <t>71,92; 87,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46,13; 78,17</t>
+          <t>43,42; 76,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>67,02; 82,17</t>
+          <t>66,8; 82,62</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>40,73; 60,8</t>
+          <t>40,6; 60,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>41,97; 67,4</t>
+          <t>42,55; 67,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>44,85; 60,44</t>
+          <t>44,92; 59,73</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>61,82; 73,6</t>
+          <t>62,34; 73,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>53,5; 70,29</t>
+          <t>52,45; 70,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>61,0; 70,8</t>
+          <t>61,14; 70,6</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>67,86; 76,25</t>
+          <t>68,03; 76,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>49,63; 62,73</t>
+          <t>48,47; 62,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>63,28; 70,93</t>
+          <t>63,29; 70,57</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>59,34; 64,09</t>
+          <t>59,19; 63,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>48,09; 55,37</t>
+          <t>48,18; 54,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>56,3; 60,37</t>
+          <t>56,17; 60,29</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene un servicio de prevención de riesgos laborales en su empresa</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>44792</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>16903</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>61695</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>34858; 55605</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10233; 25014</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>48699; 75950</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>160960</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>74015</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>234975</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>144259; 176020</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>62679; 83834</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>215254; 253512</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>68133</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>40415</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>108548</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>56903; 79685</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>32435; 47910</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>95641; 121803</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>67858</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>35290</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>103148</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>56026; 81723</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>27116; 46156</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>87676; 119700</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>81914</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>24319</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>106233</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>72928; 88614</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17130; 30371</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>94099; 116383</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>53232</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>35806</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>89038</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>42391; 63614</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>27801; 43981</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>76251; 101394</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>178536</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>86283</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>264819</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>163647; 194054</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>72732; 97202</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>245272; 283215</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>316797</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>119301</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>436097</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>297208; 334985</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>102772; 133065</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>410709; 457981</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1343</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>972221</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>432331</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1404553</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>931470; 1006572</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>403762; 459693</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1354657; 1454098</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>